--- a/Data/RawData/YPE_Data/YPE_61/Digital Data_YPE61/YPE_PILAdata_Plot_61.xlsx
+++ b/Data/RawData/YPE_Data/YPE_61/Digital Data_YPE61/YPE_PILAdata_Plot_61.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rMHUOH+4PN0/mZ+wgLbiCKkfO1fEc6H5EuYTgRyi1mM="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="xFjOsME6k568RGfW+hJU04F/jE0DQ51mR+hfFTHZfhY="/>
     </ext>
   </extLst>
 </workbook>
@@ -2566,11 +2566,11 @@
       <c r="AL11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AM11" s="4">
+      <c r="AM11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AN11" s="4">
         <v>10.0</v>
-      </c>
-      <c r="AN11" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="AO11" s="4" t="s">
         <v>62</v>
